--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1836,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1882,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2470,10 +2482,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2517,28 +2529,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2563,28 +2575,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2672,10 +2684,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2719,28 +2731,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2765,28 +2777,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2932,10 +2944,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2979,28 +2991,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3025,28 +3037,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3163,10 +3175,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3210,28 +3222,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3256,28 +3268,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3336,10 +3348,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3383,28 +3395,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3429,28 +3441,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3538,10 +3550,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3585,28 +3597,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3631,28 +3643,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3827,10 +3839,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3874,28 +3886,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3920,28 +3932,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4041,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4076,28 +4088,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4134,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4260,10 +4272,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4307,28 +4319,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4353,28 +4365,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4462,10 +4474,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4509,28 +4521,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4555,28 +4567,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4751,10 +4763,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4798,28 +4810,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4844,28 +4856,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4953,10 +4965,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5000,28 +5012,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5046,28 +5058,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5213,10 +5225,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5260,28 +5272,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5306,28 +5318,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5444,10 +5456,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5491,28 +5503,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5537,28 +5549,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5675,10 +5687,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5722,28 +5734,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5768,28 +5780,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5906,10 +5918,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5953,28 +5965,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5999,28 +6011,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6137,10 +6149,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6184,28 +6196,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6230,28 +6242,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6339,10 +6351,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6386,28 +6398,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6432,28 +6444,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6541,10 +6553,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6588,28 +6600,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6634,28 +6646,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6714,10 +6726,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6761,28 +6773,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6807,28 +6819,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6974,10 +6986,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7021,28 +7033,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7067,28 +7079,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7205,10 +7217,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7252,28 +7264,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7298,28 +7310,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7436,10 +7448,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7483,28 +7495,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7529,28 +7541,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7638,10 +7650,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7685,28 +7697,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7731,28 +7743,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7811,10 +7823,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
